--- a/03 - Exercícios/PROJETO/Formulários de Avaliação.xlsx
+++ b/03 - Exercícios/PROJETO/Formulários de Avaliação.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jhoyce\Google Drive\Material de Aula\WEB\Aulas\03 - Exercícios\PROJETO\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="60" windowWidth="15255" windowHeight="7950"/>
   </bookViews>
@@ -11,12 +16,12 @@
     <sheet name="Plan2" sheetId="2" r:id="rId2"/>
     <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="27">
   <si>
     <t>Pts</t>
   </si>
@@ -85,12 +90,94 @@
   <si>
     <t>EQ6</t>
   </si>
+  <si>
+    <t>EQ7</t>
+  </si>
+  <si>
+    <t>EQ8</t>
+  </si>
+  <si>
+    <t>EQ9</t>
+  </si>
+  <si>
+    <t>EQ10</t>
+  </si>
+  <si>
+    <t>Organização do código (pastas específicas, js e css externos)</t>
+  </si>
+  <si>
+    <t>Layout (criatividade, padronização, organização, responsividade)</t>
+  </si>
+  <si>
+    <t>Ausência de Falhas</t>
+  </si>
+  <si>
+    <t>Hospedagem do site</t>
+  </si>
+  <si>
+    <r>
+      <t>Carrinho de Compra [</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>sessionStorage</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Login de Usuário [</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>sessionStorage</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <t>Aplicação do Bootstrap</t>
+  </si>
+  <si>
+    <t>Aplicação do JSON</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,6 +214,22 @@
       <color rgb="FF000000"/>
       <name val="Cambria"/>
       <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -167,7 +270,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -463,65 +566,146 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -529,22 +713,40 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -553,6 +755,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -599,7 +809,7 @@
     </a:clrScheme>
     <a:fontScheme name="Escritório">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -631,9 +841,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -665,6 +876,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Escritório">
@@ -840,206 +1052,539 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:J11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B2:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="49.140625" customWidth="1"/>
+    <col min="3" max="3" width="37.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="15.75" thickBot="1"/>
-    <row r="3" spans="2:10" ht="15.75" thickBot="1">
-      <c r="B3" s="1"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="3" t="s">
+    <row r="2" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="20"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="22" t="s">
+      <c r="H3" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="22" t="s">
+      <c r="I3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="23" t="s">
+      <c r="J3" s="15" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="2:10" ht="26.25" thickBot="1">
-      <c r="B4" s="4">
+      <c r="K3" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="N3" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="2">
         <v>1</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="3">
         <v>3</v>
       </c>
-      <c r="E4" s="24"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="26"/>
-    </row>
-    <row r="5" spans="2:10" ht="15.75" thickBot="1">
-      <c r="B5" s="4">
+      <c r="E4" s="16"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+    </row>
+    <row r="5" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="2">
         <v>2</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="3">
         <v>2</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="8"/>
-    </row>
-    <row r="6" spans="2:10" ht="15.75" thickBot="1">
-      <c r="B6" s="4">
+      <c r="E5" s="4"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+    </row>
+    <row r="6" spans="2:14" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="2">
         <v>3</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="3">
         <v>2</v>
       </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="8"/>
-    </row>
-    <row r="7" spans="2:10" ht="15.75" thickBot="1">
-      <c r="B7" s="4">
+      <c r="E6" s="4"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+    </row>
+    <row r="7" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="2">
         <v>4</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="3">
         <v>1</v>
       </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="8"/>
-    </row>
-    <row r="8" spans="2:10">
-      <c r="B8" s="9">
+      <c r="E7" s="4"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="22">
         <v>5</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="24">
         <v>1</v>
       </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="8"/>
-    </row>
-    <row r="9" spans="2:10" ht="26.25" thickBot="1">
-      <c r="B9" s="11"/>
-      <c r="C9" s="17" t="s">
+      <c r="E8" s="4"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+    </row>
+    <row r="9" spans="2:14" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="23"/>
+      <c r="C9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="8"/>
-    </row>
-    <row r="10" spans="2:10" ht="15.75" thickBot="1">
-      <c r="B10" s="4">
+      <c r="D9" s="25"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+    </row>
+    <row r="10" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="2">
         <v>6</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="3">
         <v>1</v>
       </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="8"/>
-    </row>
-    <row r="11" spans="2:10" ht="15.75" thickBot="1">
-      <c r="B11" s="19" t="s">
+      <c r="E10" s="4"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+    </row>
+    <row r="11" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="13">
+      <c r="C11" s="27"/>
+      <c r="D11" s="7">
         <f>SUM(D4:D10)</f>
         <v>10</v>
       </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="16"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+    </row>
+    <row r="13" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="20"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="K14" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="L14" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="M14" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="N14" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="37">
+        <v>1</v>
+      </c>
+      <c r="C15" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="36">
+        <v>1</v>
+      </c>
+      <c r="E15" s="32"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+    </row>
+    <row r="16" spans="2:14" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="19">
+        <v>2</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="3">
+        <v>2</v>
+      </c>
+      <c r="E16" s="33"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+    </row>
+    <row r="17" spans="2:14" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="19"/>
+      <c r="C17" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="3">
+        <v>1</v>
+      </c>
+      <c r="E17" s="33"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+    </row>
+    <row r="18" spans="2:14" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="19">
+        <v>3</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1</v>
+      </c>
+      <c r="E18" s="33"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+    </row>
+    <row r="19" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="19">
+        <v>4</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="3">
+        <v>1</v>
+      </c>
+      <c r="E19" s="33"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B20" s="22">
+        <v>5</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="24">
+        <v>1</v>
+      </c>
+      <c r="E20" s="33"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+    </row>
+    <row r="21" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="23"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+    </row>
+    <row r="22" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="19">
+        <v>6</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E22" s="33"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+    </row>
+    <row r="23" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="19">
+        <v>7</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E23" s="33"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+    </row>
+    <row r="24" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="19">
+        <v>8</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="3">
+        <v>1</v>
+      </c>
+      <c r="E24" s="33"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+    </row>
+    <row r="25" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="19">
+        <v>9</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="3">
+        <v>1</v>
+      </c>
+      <c r="E25" s="33"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+    </row>
+    <row r="26" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="31"/>
+      <c r="D26" s="7">
+        <f>SUM(D15:D25)</f>
+        <v>10</v>
+      </c>
+      <c r="E26" s="34"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="9">
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="B14:C14"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="D20:D21"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="86" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
